--- a/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/CHECK.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241844E8-D64B-4F75-8369-5BC8D6E3C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8454DEB-5591-4EE8-95C0-8642276B8A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -274,13 +274,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,105 +602,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -715,7 +715,9 @@
       <c r="G5" s="1">
         <v>7</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>15</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -729,9 +731,9 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -744,7 +746,9 @@
       <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -758,9 +762,9 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -817,10 +821,10 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
         <v>48</v>
       </c>
@@ -830,7 +834,9 @@
       <c r="G8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -850,10 +856,10 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
@@ -863,7 +869,9 @@
       <c r="G9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -883,10 +891,10 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
@@ -896,7 +904,9 @@
       <c r="G10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -916,10 +926,10 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
@@ -929,7 +939,9 @@
       <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -949,10 +961,10 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
@@ -962,7 +974,9 @@
       <c r="G12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -982,10 +996,10 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
@@ -995,7 +1009,9 @@
       <c r="G13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1015,10 +1031,10 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="4" t="s">
         <v>48</v>
       </c>
@@ -1028,7 +1044,9 @@
       <c r="G14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1048,10 +1066,10 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
@@ -1061,7 +1079,9 @@
       <c r="G15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1081,10 +1101,10 @@
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1094,7 +1114,9 @@
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1114,10 +1136,10 @@
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1127,7 +1149,9 @@
       <c r="G17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1147,10 +1171,10 @@
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
@@ -1160,7 +1184,9 @@
       <c r="G18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1180,10 +1206,10 @@
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="4" t="s">
         <v>48</v>
       </c>
@@ -1193,7 +1219,9 @@
       <c r="G19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1213,10 +1241,10 @@
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
@@ -1226,7 +1254,9 @@
       <c r="G20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1246,10 +1276,10 @@
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="4" t="s">
         <v>48</v>
       </c>
@@ -1259,7 +1289,9 @@
       <c r="G21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1279,10 +1311,10 @@
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="4" t="s">
         <v>48</v>
       </c>
@@ -1292,7 +1324,9 @@
       <c r="G22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1312,10 +1346,10 @@
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
@@ -1325,7 +1359,9 @@
       <c r="G23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1345,10 +1381,10 @@
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="4" t="s">
         <v>48</v>
       </c>
@@ -1358,7 +1394,9 @@
       <c r="G24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1378,10 +1416,10 @@
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1391,7 +1429,9 @@
       <c r="G25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1411,10 +1451,10 @@
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="4" t="s">
         <v>48</v>
       </c>
@@ -1424,7 +1464,9 @@
       <c r="G26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1440,6 +1482,23 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -1449,23 +1508,6 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/CHECK.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8454DEB-5591-4EE8-95C0-8642276B8A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CC7A5-8679-4517-B9E4-696609A9C0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,13 +274,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -588,7 +588,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,105 +602,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -716,7 +716,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -731,9 +731,9 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -747,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -762,9 +762,9 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -821,10 +821,10 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
         <v>48</v>
       </c>
@@ -856,10 +856,10 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
@@ -891,10 +891,10 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
@@ -926,10 +926,10 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
@@ -961,10 +961,10 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
@@ -996,10 +996,10 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
@@ -1031,10 +1031,10 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="4" t="s">
         <v>48</v>
       </c>
@@ -1066,10 +1066,10 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
@@ -1101,10 +1101,10 @@
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1136,10 +1136,10 @@
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1171,10 +1171,10 @@
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
@@ -1206,10 +1206,10 @@
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="4" t="s">
         <v>48</v>
       </c>
@@ -1241,10 +1241,10 @@
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
@@ -1276,10 +1276,10 @@
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="4" t="s">
         <v>48</v>
       </c>
@@ -1311,10 +1311,10 @@
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="4" t="s">
         <v>48</v>
       </c>
@@ -1346,10 +1346,10 @@
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
@@ -1381,10 +1381,10 @@
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="4" t="s">
         <v>48</v>
       </c>
@@ -1416,10 +1416,10 @@
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1451,10 +1451,10 @@
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="4" t="s">
         <v>48</v>
       </c>
@@ -1482,23 +1482,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -1508,6 +1491,23 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/CHECK.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CC7A5-8679-4517-B9E4-696609A9C0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243C1696-0ADA-422C-AB8A-4F9931FB6155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -274,13 +274,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W7:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,105 +602,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -731,9 +731,9 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -762,9 +762,9 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -821,10 +821,10 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
         <v>48</v>
       </c>
@@ -837,7 +837,9 @@
       <c r="H8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -856,10 +858,10 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
@@ -872,7 +874,9 @@
       <c r="H9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -891,10 +895,10 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
@@ -907,7 +911,9 @@
       <c r="H10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -926,10 +932,10 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
@@ -942,7 +948,9 @@
       <c r="H11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -961,10 +969,10 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
@@ -977,7 +985,9 @@
       <c r="H12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -996,10 +1006,10 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
@@ -1012,7 +1022,9 @@
       <c r="H13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1031,10 +1043,10 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="4" t="s">
         <v>48</v>
       </c>
@@ -1047,7 +1059,9 @@
       <c r="H14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1066,10 +1080,10 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
@@ -1082,7 +1096,9 @@
       <c r="H15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1101,10 +1117,10 @@
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1117,7 +1133,9 @@
       <c r="H16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1136,10 +1154,10 @@
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1152,7 +1170,9 @@
       <c r="H17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1171,10 +1191,10 @@
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
@@ -1187,7 +1207,9 @@
       <c r="H18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1206,10 +1228,10 @@
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="4" t="s">
         <v>48</v>
       </c>
@@ -1222,7 +1244,9 @@
       <c r="H19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1241,10 +1265,10 @@
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
@@ -1257,7 +1281,9 @@
       <c r="H20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1276,10 +1302,10 @@
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="4" t="s">
         <v>48</v>
       </c>
@@ -1292,7 +1318,9 @@
       <c r="H21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1311,10 +1339,10 @@
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="4" t="s">
         <v>48</v>
       </c>
@@ -1327,7 +1355,9 @@
       <c r="H22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1346,10 +1376,10 @@
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
@@ -1362,7 +1392,9 @@
       <c r="H23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1381,10 +1413,10 @@
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="4" t="s">
         <v>48</v>
       </c>
@@ -1397,7 +1429,9 @@
       <c r="H24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1416,10 +1450,10 @@
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1432,7 +1466,9 @@
       <c r="H25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1451,10 +1487,10 @@
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="4" t="s">
         <v>48</v>
       </c>
@@ -1467,7 +1503,9 @@
       <c r="H26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1482,6 +1520,23 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -1491,23 +1546,6 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/CHECK.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243C1696-0ADA-422C-AB8A-4F9931FB6155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A8782E-4EE9-42BF-AECA-14984C2C0B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,13 +274,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W7:W8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,105 +602,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -718,7 +718,9 @@
       <c r="H5" s="1">
         <v>7</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -731,9 +733,9 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -749,7 +751,9 @@
       <c r="H6" s="1">
         <v>15</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>22</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -762,9 +766,9 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -821,10 +825,10 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
         <v>48</v>
       </c>
@@ -858,10 +862,10 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
@@ -895,10 +899,10 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
@@ -932,10 +936,10 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
@@ -969,10 +973,10 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
@@ -1006,10 +1010,10 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
@@ -1043,10 +1047,10 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="4" t="s">
         <v>48</v>
       </c>
@@ -1080,10 +1084,10 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
@@ -1117,10 +1121,10 @@
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1154,10 +1158,10 @@
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1191,10 +1195,10 @@
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
@@ -1228,10 +1232,10 @@
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="4" t="s">
         <v>48</v>
       </c>
@@ -1265,10 +1269,10 @@
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
@@ -1302,10 +1306,10 @@
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="4" t="s">
         <v>48</v>
       </c>
@@ -1339,10 +1343,10 @@
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="4" t="s">
         <v>48</v>
       </c>
@@ -1376,10 +1380,10 @@
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
@@ -1413,10 +1417,10 @@
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="4" t="s">
         <v>48</v>
       </c>
@@ -1450,10 +1454,10 @@
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1487,10 +1491,10 @@
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="4" t="s">
         <v>48</v>
       </c>
@@ -1520,23 +1524,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -1546,6 +1533,23 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
